--- a/data/trans_dic/P1408-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02479307103907828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.01454137419287081</v>
+        <v>0.01454137419287082</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.003907702133632255</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.017961004906375</v>
+        <v>0.01876687622240435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003290912813361697</v>
+        <v>0.00323699477623461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01037867731079859</v>
+        <v>0.009515941384832576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005161021281354463</v>
+        <v>0.005090016700679607</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0</v>
+        <v>0.003666402042965924</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005964373523122098</v>
+        <v>0.005797993971213682</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009956970073986241</v>
+        <v>0.01015730438630406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005412299080902191</v>
+        <v>0.005337742012919178</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.007191213251277187</v>
+        <v>0.006791766915467216</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007553344737695284</v>
+        <v>0.007789209719130554</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06548143767227918</v>
+        <v>0.06512216757051277</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02986366834585881</v>
+        <v>0.02961990609930772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05359171066431642</v>
+        <v>0.05232061964080805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0310992649772348</v>
+        <v>0.03022665826172657</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02145685435516669</v>
+        <v>0.01997565877905246</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03801347117208898</v>
+        <v>0.04307375918354841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01955643584946005</v>
+        <v>0.022171236683571</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02271696491707937</v>
+        <v>0.02277300607084506</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03506978669967085</v>
+        <v>0.03486227692181623</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02752629044582667</v>
+        <v>0.02933589281081708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03084530886569086</v>
+        <v>0.02882166742917495</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02216795819461075</v>
+        <v>0.0220776465932346</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02048157065288651</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01946087468202073</v>
+        <v>0.01946087468202074</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03096037541637782</v>
+        <v>0.0319375178215824</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01817971558276973</v>
+        <v>0.01857665033282523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01506044927010377</v>
+        <v>0.01559845348993601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01034299533855319</v>
+        <v>0.01114767766443251</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02331470332578597</v>
+        <v>0.02324947848945737</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004147499913930814</v>
+        <v>0.004222376638893347</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006225516877951764</v>
+        <v>0.006415485118793702</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01100480946170319</v>
+        <v>0.0100969993727532</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03039949598197435</v>
+        <v>0.03089639856365109</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01404381649465979</v>
+        <v>0.01412769544304514</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01228128736254667</v>
+        <v>0.01309144419422879</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01244534668828534</v>
+        <v>0.01290708961749714</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07527293954651994</v>
+        <v>0.07323421741716166</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05400651256265145</v>
+        <v>0.05312870792752757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04391787135908177</v>
+        <v>0.04420263044615474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03408973153662442</v>
+        <v>0.03805072746282863</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0567415971312691</v>
+        <v>0.05807739710593076</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02445844843682494</v>
+        <v>0.02636553753859386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02975829169715081</v>
+        <v>0.02841261117132891</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03155123382176813</v>
+        <v>0.02969029571529302</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0563566345828306</v>
+        <v>0.05778237039541097</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03307568256848373</v>
+        <v>0.03320039372748895</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03134810345706281</v>
+        <v>0.03045012658741303</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02930109765556288</v>
+        <v>0.02833477638610064</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01015483300918749</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03211834837327312</v>
+        <v>0.03211834837327311</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02465457478405242</v>
@@ -969,7 +969,7 @@
         <v>0.01178899704084734</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03213382726524057</v>
+        <v>0.03213382726524055</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02324861881797682</v>
+        <v>0.02004590086836918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01012827070165312</v>
+        <v>0.009477877656194234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005171322271374103</v>
+        <v>0.004677648120334251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01786977220142715</v>
+        <v>0.0184302560803902</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002764922633950459</v>
+        <v>0.002753980124668044</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005865475897687099</v>
+        <v>0.006041629910911553</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003110258545963332</v>
+        <v>0.003112475403434625</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02179526063269616</v>
+        <v>0.02041996467249988</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01434387748980931</v>
+        <v>0.01427520411166856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01050807168514522</v>
+        <v>0.01037803932420838</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0054729840099985</v>
+        <v>0.005151214581521108</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02313263652115639</v>
+        <v>0.02293517492230628</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06751141391943541</v>
+        <v>0.06771483980651369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04694582484383918</v>
+        <v>0.04601417457725277</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03080531758115072</v>
+        <v>0.02939984851444957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05222152304049483</v>
+        <v>0.05056329551949294</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02734043880942777</v>
+        <v>0.02448658432198728</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03422295932742626</v>
+        <v>0.03353287044181892</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02814382712091718</v>
+        <v>0.02666689477989862</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04691770393843797</v>
+        <v>0.04844993875349993</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03843274987668761</v>
+        <v>0.03853851858949987</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03221975998927732</v>
+        <v>0.03204506809955025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02169503115895388</v>
+        <v>0.02278309684961749</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04423846493361376</v>
+        <v>0.04423422047891844</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01354481960275349</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03312809881270622</v>
+        <v>0.03312809881270623</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02949743027343661</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02561965148611116</v>
+        <v>0.02509564793425212</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01358011713875229</v>
+        <v>0.01421587028349656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01316136860119093</v>
+        <v>0.01310612774451971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02166898745712809</v>
+        <v>0.02129553528091637</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006081582352510021</v>
+        <v>0.006108329906596044</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01311451734579974</v>
+        <v>0.0132775013345014</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005217956407778391</v>
+        <v>0.004989967372359891</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01898378833903699</v>
+        <v>0.02011135111498274</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01865430149799296</v>
+        <v>0.01857984794926348</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01706732029277914</v>
+        <v>0.01646291868802877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0109666051541579</v>
+        <v>0.01061533322309213</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02407301109825462</v>
+        <v>0.0240255803435554</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06818066493337245</v>
+        <v>0.06774634579472445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05311451929639463</v>
+        <v>0.05581509531588386</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04664985851505893</v>
+        <v>0.049090883645048</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06449556392774171</v>
+        <v>0.06533124336830208</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03522379749867637</v>
+        <v>0.03399172196783511</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04669986229415719</v>
+        <v>0.04644116108965342</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03196705398405377</v>
+        <v>0.03042576315934594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06047354551504489</v>
+        <v>0.06499685305629348</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04428937557522489</v>
+        <v>0.04330357219287618</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04390133274345424</v>
+        <v>0.04120027678959644</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03161120093625375</v>
+        <v>0.0302223130015868</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05514498278309825</v>
+        <v>0.05403985227709285</v>
       </c>
     </row>
     <row r="16">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01966361070854842</v>
+        <v>0.01899565631867712</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004811377906195506</v>
+        <v>0.004837511613348325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008358455955752835</v>
+        <v>0.004989918333142205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006692312184902884</v>
+        <v>0.006560379239167901</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01879323142995797</v>
+        <v>0.01910437500381731</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007143941528426397</v>
+        <v>0.007317288147020173</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02507717726962107</v>
+        <v>0.02435855408082324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002515902265316658</v>
+        <v>0.002550561621382391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006759386615214507</v>
+        <v>0.006595964935266366</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009806763745357164</v>
+        <v>0.01005378113001198</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0764478390724642</v>
+        <v>0.07762722827505462</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04208762103344772</v>
+        <v>0.04199914137720419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04744724860985172</v>
+        <v>0.04384707954610755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03693824604812845</v>
+        <v>0.03718262328136181</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07557220844838052</v>
+        <v>0.08345110455667253</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02202900881237285</v>
+        <v>0.0236095729127576</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02802024333453432</v>
+        <v>0.03162984668349312</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02823985409412754</v>
+        <v>0.02654303045283239</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06642753632690249</v>
+        <v>0.06330587746388577</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02403877748727934</v>
+        <v>0.02408685320166963</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03035641322649857</v>
+        <v>0.03136193343081596</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02619944424571628</v>
+        <v>0.02669045386929922</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007502151855393008</v>
+        <v>0.0097351330388882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02318843733641525</v>
+        <v>0.02364943826461114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003747942096253672</v>
+        <v>0.003838385583260562</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02877462712067423</v>
+        <v>0.02995356106515148</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003706081488610932</v>
+        <v>0.003704110661351628</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003432445817741078</v>
+        <v>0.003411778544403195</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.004342267822525526</v>
+        <v>0.004337209879951879</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02303083257192975</v>
+        <v>0.02299420179498589</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.007632920970084721</v>
+        <v>0.008526289277690235</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01667014043207621</v>
+        <v>0.01660894607907632</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007567209265938238</v>
+        <v>0.00732902170254177</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03005237707519916</v>
+        <v>0.03006259701904391</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04173457699946013</v>
+        <v>0.04275172681628279</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07718466542304556</v>
+        <v>0.08508247592662603</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0347843671142226</v>
+        <v>0.03432131753262885</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06597482244515546</v>
+        <v>0.07124457618379545</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03214316802636502</v>
+        <v>0.03277514247613312</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03125729217488721</v>
+        <v>0.02936943336097867</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04315672129899688</v>
+        <v>0.04013030683219308</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05270658241735344</v>
+        <v>0.05454606569912127</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03144673691169918</v>
+        <v>0.03085473976749336</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04746258816253045</v>
+        <v>0.04900897589360741</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02696851151598832</v>
+        <v>0.02861578113409992</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05376314427224615</v>
+        <v>0.05495499752421813</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.01738616335759673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02588611425825266</v>
+        <v>0.02588611425825265</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03338952515860969</v>
@@ -1513,7 +1513,7 @@
         <v>0.01609137983206908</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.02922279117749847</v>
+        <v>0.02922279117749848</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03143397574746309</v>
+        <v>0.03070845971162857</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004611734262084282</v>
+        <v>0.004607808074212222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.008761484251356193</v>
+        <v>0.009006408451808549</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01553187255254185</v>
+        <v>0.01632398702253588</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02203310674153878</v>
+        <v>0.02125294678184537</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004454412736245418</v>
+        <v>0.004473962011618544</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00745520720778479</v>
+        <v>0.007068191202020441</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0234271419268157</v>
+        <v>0.0213387810595765</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02884641397065568</v>
+        <v>0.02912942487489002</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005984303422126776</v>
+        <v>0.005905980585114851</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009904822698432658</v>
+        <v>0.009534216048061671</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02167721551280185</v>
+        <v>0.02115040966331749</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06302712751668511</v>
+        <v>0.06215438078576199</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02123206827094948</v>
+        <v>0.02170614935384808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03285399682591763</v>
+        <v>0.03130986009092577</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03913421934288785</v>
+        <v>0.04087117485488118</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05065007262177012</v>
+        <v>0.04976119866686109</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02123164629626558</v>
+        <v>0.02134163716151557</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02674313329184335</v>
+        <v>0.02572903241918385</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04954326878737565</v>
+        <v>0.04838304500053655</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05073924106706431</v>
+        <v>0.04924592220653624</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01712564167930464</v>
+        <v>0.0176118973078682</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02601061577717858</v>
+        <v>0.02464084135188858</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.03943335559802508</v>
+        <v>0.03946753233185869</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.01288442259751763</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.02202102905290036</v>
+        <v>0.02202102905290037</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04021659544502194</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02958939053800354</v>
+        <v>0.02968005876560434</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008200563318335314</v>
+        <v>0.008100906839871656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.008717804197552553</v>
+        <v>0.008504880226420229</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0122545370714251</v>
+        <v>0.01254762044858767</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02584577906282831</v>
+        <v>0.02488269181584361</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002603144837876966</v>
+        <v>0.002627783292143774</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.005784730246102005</v>
+        <v>0.005967347120670874</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01492479419688334</v>
+        <v>0.01413146430561296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03087765733736096</v>
+        <v>0.03087182213920269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.005843393726770048</v>
+        <v>0.005575484599245555</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.009164874151580883</v>
+        <v>0.009258568832803909</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01527661134703981</v>
+        <v>0.01569544173698831</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06047837200615881</v>
+        <v>0.0606066060070858</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02776383048064735</v>
+        <v>0.02861924978171605</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02514693765871293</v>
+        <v>0.02501200586361928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03192226480515903</v>
+        <v>0.03130239602627533</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05309170945711306</v>
+        <v>0.05320072587574495</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.016075898664713</v>
+        <v>0.01571053242824914</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02360776667913488</v>
+        <v>0.02400708096588681</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03135469035958397</v>
+        <v>0.03229346333310656</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0509014298651387</v>
+        <v>0.05227785643667783</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01715677405263881</v>
+        <v>0.0175315755668682</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0209635728704902</v>
+        <v>0.02142799837870216</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02777432908790604</v>
+        <v>0.02799777006404279</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01618282265822354</v>
+        <v>0.01692857301287009</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01556045674316667</v>
+        <v>0.01528687877289613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02071917958777696</v>
+        <v>0.02072756627278089</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.008822198592977405</v>
+        <v>0.008641928969829404</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.009109566476428365</v>
+        <v>0.009065888822046553</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02145847028966737</v>
+        <v>0.02144272346154356</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01380664161697903</v>
+        <v>0.01370362052574704</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01362926335875835</v>
+        <v>0.01310288322899035</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02243502385861763</v>
+        <v>0.02254725650629072</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02673541966862198</v>
+        <v>0.02733105396308802</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02526755917797871</v>
+        <v>0.02492546581309908</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03057654291755827</v>
+        <v>0.0307157390589978</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01626365166166996</v>
+        <v>0.01613329100467435</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01695149075146733</v>
+        <v>0.01734723536674776</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03044542360832894</v>
+        <v>0.03130584920016689</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0201925782427997</v>
+        <v>0.0202664452724272</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01959394714112176</v>
+        <v>0.01934290980531278</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02903154243972755</v>
+        <v>0.02933774895067725</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4904</v>
+        <v>5124</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3049</v>
+        <v>2795</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1885</v>
+        <v>1833</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5316</v>
+        <v>5422</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3150</v>
+        <v>3106</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4189</v>
+        <v>3956</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4796</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17877</v>
+        <v>17779</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8802</v>
+        <v>8730</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15743</v>
+        <v>15370</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9916</v>
+        <v>9638</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5597</v>
+        <v>5210</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10919</v>
+        <v>12373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5646</v>
+        <v>6401</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7180</v>
+        <v>7198</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18722</v>
+        <v>18611</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16020</v>
+        <v>17073</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>17966</v>
+        <v>16788</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14075</v>
+        <v>14017</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15266</v>
+        <v>15748</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9190</v>
+        <v>9391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7569</v>
+        <v>7839</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5478</v>
+        <v>5904</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11749</v>
+        <v>11717</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2172</v>
+        <v>2212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3256</v>
+        <v>3356</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5988</v>
+        <v>5494</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30309</v>
+        <v>30804</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>14455</v>
+        <v>14542</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12596</v>
+        <v>13427</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>13363</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37115</v>
+        <v>36110</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27302</v>
+        <v>26858</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22072</v>
+        <v>22215</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18056</v>
+        <v>20154</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28595</v>
+        <v>29268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12810</v>
+        <v>13809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15566</v>
+        <v>14862</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17167</v>
+        <v>16154</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56189</v>
+        <v>57610</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>34045</v>
+        <v>34173</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>32152</v>
+        <v>31231</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>31462</v>
+        <v>30425</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7413</v>
+        <v>6392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3282</v>
+        <v>3071</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1647</v>
+        <v>1490</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5647</v>
+        <v>5824</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2000</v>
+        <v>2060</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7767</v>
+        <v>7277</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9385</v>
+        <v>9340</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6989</v>
+        <v>6902</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3584</v>
+        <v>3373</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15554</v>
+        <v>15421</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21526</v>
+        <v>21591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15213</v>
+        <v>14911</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9813</v>
+        <v>9366</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16502</v>
+        <v>15978</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9170</v>
+        <v>8213</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11671</v>
+        <v>11435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9465</v>
+        <v>8968</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16721</v>
+        <v>17267</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25145</v>
+        <v>25214</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>21428</v>
+        <v>21312</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14208</v>
+        <v>14920</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>29745</v>
+        <v>29742</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9189</v>
+        <v>9001</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5079</v>
+        <v>5316</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4869</v>
+        <v>4849</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8086</v>
+        <v>7946</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2259</v>
+        <v>2269</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5101</v>
+        <v>5164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2021</v>
+        <v>1933</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8010</v>
+        <v>8486</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13620</v>
+        <v>13566</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13021</v>
+        <v>12560</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8304</v>
+        <v>8038</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>19141</v>
+        <v>19103</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24454</v>
+        <v>24299</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19864</v>
+        <v>20874</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17259</v>
+        <v>18162</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24066</v>
+        <v>24378</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13084</v>
+        <v>12626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18164</v>
+        <v>18063</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12380</v>
+        <v>11783</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25517</v>
+        <v>27426</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32337</v>
+        <v>31617</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>33494</v>
+        <v>31433</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>23937</v>
+        <v>22886</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43846</v>
+        <v>42967</v>
       </c>
     </row>
     <row r="20">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3998</v>
+        <v>3862</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1765</v>
+        <v>1054</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1376</v>
+        <v>1349</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3903</v>
+        <v>3967</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2889,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1618</v>
+        <v>1657</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10306</v>
+        <v>10011</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2905</v>
+        <v>2835</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4237</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15542</v>
+        <v>15782</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8949</v>
+        <v>8930</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10022</v>
+        <v>9261</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7597</v>
+        <v>7647</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15694</v>
+        <v>17330</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4837</v>
+        <v>5184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6125</v>
+        <v>6914</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6394</v>
+        <v>6010</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>27300</v>
+        <v>26017</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10390</v>
+        <v>10411</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13047</v>
+        <v>13480</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11320</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2032</v>
+        <v>2636</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6353</v>
+        <v>6479</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7789</v>
+        <v>8109</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6059</v>
+        <v>6050</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4190</v>
+        <v>4681</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>9203</v>
+        <v>9169</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4058</v>
+        <v>3930</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>16042</v>
+        <v>16048</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11302</v>
+        <v>11578</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21147</v>
+        <v>23311</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9153</v>
+        <v>9031</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17860</v>
+        <v>19286</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8940</v>
+        <v>9116</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8693</v>
+        <v>8168</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11787</v>
+        <v>10960</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13867</v>
+        <v>14351</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17263</v>
+        <v>16938</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>26203</v>
+        <v>27057</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14462</v>
+        <v>15345</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>28699</v>
+        <v>29335</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>19333</v>
+        <v>18887</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5752</v>
+        <v>5913</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11148</v>
+        <v>11716</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14062</v>
+        <v>13564</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3091</v>
+        <v>3104</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5154</v>
+        <v>4886</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>18022</v>
+        <v>16415</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>36152</v>
+        <v>36506</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>8119</v>
+        <v>8012</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>13350</v>
+        <v>12851</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>32234</v>
+        <v>31450</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>38763</v>
+        <v>38227</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14072</v>
+        <v>14387</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>21571</v>
+        <v>20557</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>28087</v>
+        <v>29334</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>32326</v>
+        <v>31759</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>14732</v>
+        <v>14808</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18487</v>
+        <v>17786</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>38112</v>
+        <v>37220</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>63589</v>
+        <v>61717</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>23233</v>
+        <v>23893</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>35058</v>
+        <v>33212</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>58637</v>
+        <v>58688</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22008</v>
+        <v>22076</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>6389</v>
+        <v>6311</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6788</v>
+        <v>6622</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9780</v>
+        <v>10014</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>20250</v>
+        <v>19496</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2138</v>
+        <v>2158</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4779</v>
+        <v>4930</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>12397</v>
+        <v>11738</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>47160</v>
+        <v>47151</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>9352</v>
+        <v>8924</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>14707</v>
+        <v>14858</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>24881</v>
+        <v>25563</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>44984</v>
+        <v>45079</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>21631</v>
+        <v>22297</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>19579</v>
+        <v>19474</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25476</v>
+        <v>24982</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>41598</v>
+        <v>41683</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13205</v>
+        <v>12905</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>19504</v>
+        <v>19834</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>26043</v>
+        <v>26823</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>77742</v>
+        <v>79844</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>27459</v>
+        <v>28059</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>33641</v>
+        <v>34387</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>45236</v>
+        <v>45599</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>55455</v>
+        <v>58010</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>52818</v>
+        <v>51889</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>73135</v>
+        <v>73164</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>31353</v>
+        <v>30713</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>32289</v>
+        <v>32134</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>79995</v>
+        <v>79936</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>96380</v>
+        <v>95661</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>94572</v>
+        <v>90919</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>162827</v>
+        <v>163641</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>91616</v>
+        <v>93657</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>85767</v>
+        <v>84606</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>107929</v>
+        <v>108421</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>57800</v>
+        <v>57336</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>60085</v>
+        <v>61488</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>113497</v>
+        <v>116705</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>140958</v>
+        <v>141474</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>135960</v>
+        <v>134218</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>210702</v>
+        <v>212925</v>
       </c>
     </row>
     <row r="40">
